--- a/当前实验计划和进展跟踪.xlsx
+++ b/当前实验计划和进展跟踪.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>任务简述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>分析M2模型训练结果，与已知结果对比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已有部分代码。可以基于此修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -131,6 +127,46 @@
   </si>
   <si>
     <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型搭建完成, 使用自定义loss函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不知道如何衡量多输出的效果(之前单输出知道如何衡量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不知道如何衡量多输出的效果(之前单输出知道如何衡量), 还有参数尚需调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本的都完成了, 曲线的走势不太理想, 正在想办法改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为是多输出, 每个输出都需要不同的损失函数, 此处使用了多个损失函数, 但还需改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据要求, 会使用后端自定义简单的loss函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端还有许多的函数没掌握</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型搭建完成(使用emotion作为中间结果的多输出模型)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +184,32 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -195,26 +257,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -555,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -564,58 +643,67 @@
     <col min="2" max="2" width="53.25" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="7" width="25.625" customWidth="1"/>
-    <col min="8" max="8" width="33.25" customWidth="1"/>
+    <col min="5" max="5" width="45.25" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="75.5" customWidth="1"/>
+    <col min="8" max="8" width="72.5" customWidth="1"/>
     <col min="9" max="12" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="8" t="s">
-        <v>19</v>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -623,81 +711,99 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="5"/>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -705,134 +811,134 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -841,6 +947,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/当前实验计划和进展跟踪.xlsx
+++ b/当前实验计划和进展跟踪.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>任务简述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,11 +162,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模型搭建完成(使用emotion作为中间结果的多输出模型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估计工作量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多输出问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,9 +283,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -294,6 +311,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -635,7 +655,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="A1:H13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,304 +663,318 @@
     <col min="2" max="2" width="53.25" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="45.25" customWidth="1"/>
+    <col min="5" max="5" width="52.125" customWidth="1"/>
     <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="7" width="75.5" customWidth="1"/>
-    <col min="8" max="8" width="72.5" customWidth="1"/>
+    <col min="8" max="8" width="83.5" customWidth="1"/>
     <col min="9" max="12" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="13"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
